--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value737.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value737.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.424793994945801</v>
+        <v>1.134489417076111</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.882919430732727</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.311384538336205</v>
+        <v>1.906922340393066</v>
       </c>
       <c r="E1">
-        <v>0.8390909245248795</v>
+        <v>1.096083402633667</v>
       </c>
     </row>
   </sheetData>
